--- a/data/input/employee_absence_data_24.xlsx
+++ b/data/input/employee_absence_data_24.xlsx
@@ -464,69 +464,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33312</v>
+        <v>32050</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leandro Costela</t>
+          <t>Marcos Vinicius Teixeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45105</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>5196.77</v>
+        <v>9392.809999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20349</v>
+        <v>40397</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bryan da Rosa</t>
+          <t>Aurora Correia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45097</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>9669.809999999999</v>
+        <v>3595.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>41578</v>
+        <v>13278</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luiza Farias</t>
+          <t>Marina Vieira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -536,84 +536,84 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45084</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>4477.51</v>
+        <v>3153.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10647</v>
+        <v>8869</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiz Miguel Melo</t>
+          <t>Aylla Santos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45094</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>12088.59</v>
+        <v>5261.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50497</v>
+        <v>87339</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Matheus Viana</t>
+          <t>Gabriel Cardoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45092</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>2552.16</v>
+        <v>8297.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3762</v>
+        <v>34196</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gael da Cruz</t>
+          <t>Yan Fernandes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -627,129 +627,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45087</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>7758.41</v>
+        <v>3114.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33408</v>
+        <v>86874</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Eloá Pires</t>
+          <t>Antonella Jesus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45088</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>5427.37</v>
+        <v>3697.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37680</v>
+        <v>65029</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isis das Neves</t>
+          <t>Ana Lívia da Paz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45080</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>3381.13</v>
+        <v>8422.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>39627</v>
+        <v>78021</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Vitor Moreira</t>
+          <t>João Miguel Ramos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45090</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>3270.65</v>
+        <v>2022.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34245</v>
+        <v>43998</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Bella Duarte</t>
+          <t>Mirella Moura</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45102</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>9265.870000000001</v>
+        <v>2271.81</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_24.xlsx
+++ b/data/input/employee_absence_data_24.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32050</v>
+        <v>13317</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Teixeira</t>
+          <t>João Miguel Freitas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,53 +485,53 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45082</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>9392.809999999999</v>
+        <v>6101.37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>40397</v>
+        <v>24174</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aurora Correia</t>
+          <t>Luiz Gustavo Oliveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45083</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>3595.64</v>
+        <v>4211.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13278</v>
+        <v>39374</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marina Vieira</t>
+          <t>Matheus Azevedo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,216 +540,216 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>3153.63</v>
+        <v>3191.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8869</v>
+        <v>52658</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aylla Santos</t>
+          <t>Noah Vasconcelos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>5261.08</v>
+        <v>4497.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87339</v>
+        <v>25632</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gabriel Cardoso</t>
+          <t>Juliana Vargas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>8297.76</v>
+        <v>7449.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34196</v>
+        <v>41057</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Yan Fernandes</t>
+          <t>Srta. Maria Fernanda Cunha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45082</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>3114.37</v>
+        <v>7805.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86874</v>
+        <v>12138</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Antonella Jesus</t>
+          <t>Ágatha Aparecida</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45081</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>3697.52</v>
+        <v>8433.450000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65029</v>
+        <v>82575</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Lívia da Paz</t>
+          <t>Dra. Catarina Araújo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="G9" t="n">
-        <v>8422.6</v>
+        <v>9058.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78021</v>
+        <v>26244</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Miguel Ramos</t>
+          <t>Kevin Marques</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>2022.13</v>
+        <v>2489.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43998</v>
+        <v>10987</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mirella Moura</t>
+          <t>Sr. João Guilherme Sales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45101</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>2271.81</v>
+        <v>3234.26</v>
       </c>
     </row>
   </sheetData>
